--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.87</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>009862</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>鹏华新兴成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>91.76</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>65.52</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009862</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合C</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>65.52</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>206009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>鹏华新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>44.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>44.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>009862</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>鹏华新兴成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>010427</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>兴银策略智选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>008537</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>兴银研究精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009862</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合C</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010427</t>
+          <t>010428</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴银策略智选混合A</t>
+          <t>兴银策略智选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>90.43</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010428</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴银策略智选混合C</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>008538</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>兴银研究精选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008537</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴银研究精选股票A</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008538</t>
+          <t>010356</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴银研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1478,7 +1479,6 @@
           <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>92.10</t>
@@ -1494,6 +1494,176 @@
       </c>
       <c r="H17" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1669,4 +1670,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2144,4 +2145,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2153,7 +2154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,17 +2165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2184,14 +2205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.59</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2200,14 +2243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2216,14 +2281,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.91</v>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2232,13 +2319,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4739</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3160,7 +3161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3171,17 +3172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3191,14 +3212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.43</v>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3207,14 +3250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.59</v>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3223,14 +3288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3239,14 +3326,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.91</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3255,13 +3364,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3825,7 +3826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,17 +3837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3856,14 +3877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3872,14 +3915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.43</v>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3888,14 +3953,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.59</v>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3904,14 +3991,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -3920,14 +4029,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.91</v>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3936,13 +4067,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>8.43</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>3.59</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>7.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.12</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5425</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2781,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3255,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +3764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4082,7 +4421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300674-宇信科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>8.43</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>3.59</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.12</v>
       </c>
     </row>
@@ -616,7 +633,1409 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014975</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>017537</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +2357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2114,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3120,7 +4539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3594,7 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3764,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4419,402 +5838,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3027</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3689</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2783</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0594</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>